--- a/01-25-26 to 01-31-26 Madison Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2823,7 +2823,11 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2865,21 +2869,9 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Camry 3 available, Equip</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
@@ -2922,15 +2914,19 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Camry 3 available, Equip</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
@@ -2973,12 +2969,12 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3025,12 +3021,12 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3076,12 +3072,12 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3121,8 +3117,16 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -3225,11 +3229,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -3270,7 +3270,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3313,7 +3313,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>KELLEY #64, CORTLAND MOBIL</t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3361,7 +3361,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>15 W LINCOLN HWY</t>
+          <t>KELLEY #64, CORTLAND MOBIL</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3408,7 +3408,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/J3eqmpHTTNT2</t>
+          <t>15 W LINCOLN HWY</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3443,7 +3443,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:30 am at IL Office </t>
+          <t>https://goo.gl/maps/J3eqmpHTTNT2</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3476,7 +3476,11 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -3506,21 +3510,13 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">*IL Meet is 5:30 am at IL Office </t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
@@ -3549,22 +3545,9 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
@@ -3595,15 +3578,19 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
@@ -3634,15 +3621,20 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
@@ -3673,19 +3665,15 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
@@ -3714,8 +3702,16 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3745,9 +3741,21 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
@@ -4414,7 +4422,11 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -4440,21 +4452,9 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
@@ -4481,15 +4481,19 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
@@ -4516,12 +4520,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4551,12 +4555,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4586,12 +4590,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -4610,6 +4614,41 @@
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-25-26 to 01-31-26 Madison Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Madison Schedule.xlsx
@@ -1060,7 +1060,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah &amp; Lori at Hwy N PnR</t>
+          <t>4:45 am meet for Sarah, Josie &amp; Lori at Hwy N PnR</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1695,15 +1695,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Driver 1/2,
-Rx</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1777,13 +1772,13 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>Driver 1/2,
+Rx</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1857,13 +1852,13 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Driver 1/2,
-Supv Rx</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -1939,13 +1934,13 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>@ Store,
-After c-store</t>
+          <t>Driver 1/2,
+Supv Rx</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -2004,12 +1999,13 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After c-store</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2080,7 +2076,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2147,7 +2143,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2214,7 +2210,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2269,7 +2265,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2324,13 +2320,12 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store,
-After c-store</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2377,9 +2372,22 @@
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>@ Store,
+After c-store</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>

--- a/01-25-26 to 01-31-26 Madison Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Madison Schedule.xlsx
@@ -1858,7 +1858,8 @@
       <c r="W25" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Silver Van,
+Trainer</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -2379,13 +2380,14 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Missy</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
           <t>@ Store,
-After c-store</t>
+3rd day,
+work w/ Nate</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2432,9 +2434,22 @@
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>@ Store,
+After c-store</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>

--- a/01-25-26 to 01-31-26 Madison Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Madison Schedule.xlsx
@@ -1312,7 +1312,11 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -2000,13 +2004,14 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
           <t>@ Store,
-After c-store</t>
+2nd day,
+work w/ Angela</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2077,12 +2082,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After c-store</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2144,7 +2150,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2211,7 +2217,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2266,7 +2272,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2321,7 +2327,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -2380,14 +2386,12 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Missy</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd day,
-work w/ Nate</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2441,13 +2445,14 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Missy</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
           <t>@ Store,
-After c-store</t>
+3rd day,
+work w/ Nate</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2491,9 +2496,22 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>@ Store,
+After c-store</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -3231,7 +3249,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3270,7 +3288,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3313,12 +3331,13 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3360,13 +3379,12 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3401,21 +3419,9 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>

--- a/01-25-26 to 01-31-26 Madison Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Madison Schedule.xlsx
@@ -1629,7 +1629,11 @@
           <t>Josie</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>@ Sotre w/ Sarah/Lori</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>

--- a/01-25-26 to 01-31-26 Madison Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Madison Schedule.xlsx
@@ -1631,7 +1631,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@ Sotre w/ Sarah/Lori</t>
+          <t>@ Store w/ Sarah/Lori</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>

--- a/01-25-26 to 01-31-26 Madison Schedule.xlsx
+++ b/01-25-26 to 01-31-26 Madison Schedule.xlsx
@@ -1408,7 +1408,7 @@
       <c r="W19" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Silver Van, Rx</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah/Lori</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1780,13 +1780,14 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Driver 1/2,
-Rx</t>
+          <t>Driver, 1/2
+Silver Van,
+Trainer</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1860,14 +1861,13 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van,
-Trainer</t>
+          <t>@ Store, 
+Supv Rx</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -1943,13 +1943,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Driver 1/2,
-Supv Rx</t>
+          <t>@ Store,
+2nd day,
+work w/ Angela</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -2008,14 +2009,13 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
           <t>@ Store,
-2nd day,
-work w/ Angela</t>
+After c-store</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2086,13 +2086,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store,
-After c-store</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2154,7 +2153,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2221,7 +2220,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2276,7 +2275,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2331,7 +2330,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -2390,12 +2389,14 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Missy</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd day,
+work w/ Nate</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2449,14 +2450,13 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Missy</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
           <t>@ Store,
-3rd day,
-work w/ Nate</t>
+After c-store</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2500,22 +2500,9 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>@ Store,
-After c-store</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
